--- a/src/Resources/assets/Testdata/JazmyneSalarySheet.xlsx
+++ b/src/Resources/assets/Testdata/JazmyneSalarySheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennyabby\Desktop\Phoenix Holdings Projects\TechFarms\Apps\wagecompute\src\Resources\assets\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A2F618-6FDC-41F7-9396-02A082916004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491ECB27-92CA-40E4-9236-908C75D06C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82:E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
